--- a/docs/CareConnect-MedicationAdministration-1.xlsx
+++ b/docs/CareConnect-MedicationAdministration-1.xlsx
@@ -9,13 +9,13 @@
     <sheet name="Elements" r:id="rId3" sheetId="1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="true">Elements!$A$1:$AN$74</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="true">Elements!$A$1:$AN$71</definedName>
   </definedNames>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2644" uniqueCount="481">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2537" uniqueCount="473">
   <si>
     <t>Path</t>
   </si>
@@ -485,7 +485,7 @@
     <t>There are many sets  of identifiers.  To perform matching of two identifiers, we need to know what set we're dealing with. The system identifies a particular set of unique identifiers.</t>
   </si>
   <si>
-    <t>http://www.acme.com/identifiers/patient or urn:ietf:rfc:3986 if the Identifier.value itself is a full uri</t>
+    <t>http://www.acme.com/identifiers/patient</t>
   </si>
   <si>
     <t>Identifier.system</t>
@@ -657,7 +657,39 @@
     <t>.inboundRelationship[typeCode=COMP].source[classCode=OBS, moodCode=EVN, code="type of medication usage"].value</t>
   </si>
   <si>
-    <t>MedicationAdministration.medicationReference</t>
+    <t>MedicationAdministration.medication[x]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reference
+</t>
+  </si>
+  <si>
+    <t>What was administered</t>
+  </si>
+  <si>
+    <t>Identifies the medication that was administered. This is either a link to a resource representing the details of the medication or a simple attribute carrying a code that identifies the medication from a known list of medications.</t>
+  </si>
+  <si>
+    <t>If only a code is specified, then it needs to be a code for a specific product. If more information is required, then the use of the medication resource is recommended.  For example if you require form or lot number, then you must reference the Medication resource. .</t>
+  </si>
+  <si>
+    <t xml:space="preserve">type:$this}
+</t>
+  </si>
+  <si>
+    <t>closed</t>
+  </si>
+  <si>
+    <t>…code</t>
+  </si>
+  <si>
+    <t>.participation[typeCode=CSM].role[classCode=ADMM]</t>
+  </si>
+  <si>
+    <t>what</t>
+  </si>
+  <si>
+    <t>RXA-5-Administered Code</t>
   </si>
   <si>
     <t>medicationReference</t>
@@ -665,30 +697,6 @@
   <si>
     <t xml:space="preserve">Reference(Medication|https://fhir.hl7.org.uk/STU3/StructureDefinition/CareConnect-Medication-1)
 </t>
-  </si>
-  <si>
-    <t>What was administered</t>
-  </si>
-  <si>
-    <t>Identifies the medication that was administered. This is either a link to a resource representing the details of the medication or a simple attribute carrying a code that identifies the medication from a known list of medications.</t>
-  </si>
-  <si>
-    <t>If only a code is specified, then it needs to be a code for a specific product. If more information is required, then the use of the medication resource is recommended.  For example if you require form or lot number, then you must reference the Medication resource. .</t>
-  </si>
-  <si>
-    <t>MedicationAdministration.medication[x]</t>
-  </si>
-  <si>
-    <t>…code</t>
-  </si>
-  <si>
-    <t>.participation[typeCode=CSM].role[classCode=ADMM]</t>
-  </si>
-  <si>
-    <t>what</t>
-  </si>
-  <si>
-    <t>RXA-5-Administered Code</t>
   </si>
   <si>
     <t>MedicationAdministration.subject</t>
@@ -1248,41 +1256,10 @@
 </t>
   </si>
   <si>
-    <t>MedicationAdministration.dosage.route.coding.extension.id</t>
-  </si>
-  <si>
-    <t>MedicationAdministration.dosage.route.coding.extension.extension</t>
-  </si>
-  <si>
-    <t>MedicationAdministration.dosage.route.coding.extension.url</t>
-  </si>
-  <si>
-    <t>identifies the meaning of the extension</t>
-  </si>
-  <si>
-    <t>Source of the definition for the extension code - a logical name or a URL.</t>
-  </si>
-  <si>
-    <t>The definition may point directly to a computable or human-readable definition of the extensibility codes, or it may be a logical URI as declared in some other specification. The definition SHALL be a URI for the Structure Definition defining the extension.</t>
-  </si>
-  <si>
-    <t>Extension.url</t>
-  </si>
-  <si>
-    <t>MedicationAdministration.dosage.route.coding.extension.value[x]</t>
-  </si>
-  <si>
-    <t>base64Binary
-booleancodedatedateTimedecimalidinstantintegermarkdownoidpositiveIntstringtimeunsignedInturiAddressAgeAnnotationAttachmentCodeableConceptCodingContactPointCountDistanceDurationHumanNameIdentifierMoneyPeriodQuantityRangeRatioReferenceSampledDataSignatureTimingMeta</t>
-  </si>
-  <si>
-    <t>Value of extension</t>
-  </si>
-  <si>
-    <t>Value of extension - may be a resource or one of a constrained set of the data types (see Extensibility in the spec for list).</t>
-  </si>
-  <si>
-    <t>Extension.value[x]</t>
+    <t>The SNOMED CT Description ID for the display</t>
+  </si>
+  <si>
+    <t>The SNOMED CT Description ID for the display.</t>
   </si>
   <si>
     <t>MedicationAdministration.dosage.route.coding.system</t>
@@ -1656,7 +1633,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AN74"/>
+  <dimension ref="A1:AN71"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -1665,7 +1642,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="61.96875" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="55.48046875" customWidth="true" bestFit="true"/>
     <col min="2" max="2" width="22.55078125" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="38.81640625" customWidth="true" bestFit="true" hidden="true"/>
     <col min="4" max="4" width="5.8984375" customWidth="true" bestFit="true" hidden="true"/>
@@ -4331,9 +4308,7 @@
       <c r="A24" t="s" s="2">
         <v>206</v>
       </c>
-      <c r="B24" t="s" s="2">
-        <v>207</v>
-      </c>
+      <c r="B24" s="2"/>
       <c r="C24" t="s" s="2">
         <v>41</v>
       </c>
@@ -4354,16 +4329,16 @@
         <v>53</v>
       </c>
       <c r="J24" t="s" s="2">
+        <v>207</v>
+      </c>
+      <c r="K24" t="s" s="2">
         <v>208</v>
       </c>
-      <c r="K24" t="s" s="2">
+      <c r="L24" t="s" s="2">
         <v>209</v>
       </c>
-      <c r="L24" t="s" s="2">
+      <c r="M24" t="s" s="2">
         <v>210</v>
-      </c>
-      <c r="M24" t="s" s="2">
-        <v>211</v>
       </c>
       <c r="N24" s="2"/>
       <c r="O24" t="s" s="2">
@@ -4401,19 +4376,17 @@
         <v>41</v>
       </c>
       <c r="AA24" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AB24" t="s" s="2">
-        <v>41</v>
-      </c>
+        <v>211</v>
+      </c>
+      <c r="AB24" s="2"/>
       <c r="AC24" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AD24" t="s" s="2">
-        <v>41</v>
+        <v>212</v>
       </c>
       <c r="AE24" t="s" s="2">
-        <v>212</v>
+        <v>206</v>
       </c>
       <c r="AF24" t="s" s="2">
         <v>52</v>
@@ -4445,9 +4418,11 @@
     </row>
     <row r="25" hidden="true">
       <c r="A25" t="s" s="2">
+        <v>206</v>
+      </c>
+      <c r="B25" t="s" s="2">
         <v>217</v>
       </c>
-      <c r="B25" s="2"/>
       <c r="C25" t="s" s="2">
         <v>41</v>
       </c>
@@ -4471,12 +4446,14 @@
         <v>218</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>219</v>
+        <v>208</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>220</v>
-      </c>
-      <c r="M25" s="2"/>
+        <v>209</v>
+      </c>
+      <c r="M25" t="s" s="2">
+        <v>210</v>
+      </c>
       <c r="N25" s="2"/>
       <c r="O25" t="s" s="2">
         <v>41</v>
@@ -4525,7 +4502,7 @@
         <v>41</v>
       </c>
       <c r="AE25" t="s" s="2">
-        <v>217</v>
+        <v>206</v>
       </c>
       <c r="AF25" t="s" s="2">
         <v>52</v>
@@ -4540,16 +4517,16 @@
         <v>41</v>
       </c>
       <c r="AJ25" t="s" s="2">
-        <v>221</v>
+        <v>213</v>
       </c>
       <c r="AK25" t="s" s="2">
-        <v>222</v>
+        <v>214</v>
       </c>
       <c r="AL25" t="s" s="2">
-        <v>223</v>
+        <v>215</v>
       </c>
       <c r="AM25" t="s" s="2">
-        <v>224</v>
+        <v>216</v>
       </c>
       <c r="AN25" t="s" s="2">
         <v>41</v>
@@ -4557,7 +4534,7 @@
     </row>
     <row r="26" hidden="true">
       <c r="A26" t="s" s="2">
-        <v>225</v>
+        <v>219</v>
       </c>
       <c r="B26" s="2"/>
       <c r="C26" t="s" s="2">
@@ -4565,7 +4542,7 @@
       </c>
       <c r="D26" s="2"/>
       <c r="E26" t="s" s="2">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="F26" t="s" s="2">
         <v>52</v>
@@ -4577,16 +4554,16 @@
         <v>41</v>
       </c>
       <c r="I26" t="s" s="2">
-        <v>41</v>
+        <v>53</v>
       </c>
       <c r="J26" t="s" s="2">
-        <v>226</v>
+        <v>220</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>227</v>
+        <v>221</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>228</v>
+        <v>222</v>
       </c>
       <c r="M26" s="2"/>
       <c r="N26" s="2"/>
@@ -4637,31 +4614,31 @@
         <v>41</v>
       </c>
       <c r="AE26" t="s" s="2">
+        <v>219</v>
+      </c>
+      <c r="AF26" t="s" s="2">
+        <v>52</v>
+      </c>
+      <c r="AG26" t="s" s="2">
+        <v>52</v>
+      </c>
+      <c r="AH26" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AI26" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AJ26" t="s" s="2">
+        <v>223</v>
+      </c>
+      <c r="AK26" t="s" s="2">
+        <v>224</v>
+      </c>
+      <c r="AL26" t="s" s="2">
         <v>225</v>
       </c>
-      <c r="AF26" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AG26" t="s" s="2">
-        <v>52</v>
-      </c>
-      <c r="AH26" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AI26" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AJ26" t="s" s="2">
-        <v>229</v>
-      </c>
-      <c r="AK26" t="s" s="2">
-        <v>230</v>
-      </c>
-      <c r="AL26" t="s" s="2">
-        <v>231</v>
-      </c>
       <c r="AM26" t="s" s="2">
-        <v>232</v>
+        <v>226</v>
       </c>
       <c r="AN26" t="s" s="2">
         <v>41</v>
@@ -4669,7 +4646,7 @@
     </row>
     <row r="27" hidden="true">
       <c r="A27" t="s" s="2">
-        <v>233</v>
+        <v>227</v>
       </c>
       <c r="B27" s="2"/>
       <c r="C27" t="s" s="2">
@@ -4680,7 +4657,7 @@
         <v>42</v>
       </c>
       <c r="F27" t="s" s="2">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="G27" t="s" s="2">
         <v>41</v>
@@ -4692,13 +4669,13 @@
         <v>41</v>
       </c>
       <c r="J27" t="s" s="2">
-        <v>234</v>
+        <v>228</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>235</v>
+        <v>229</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>236</v>
+        <v>230</v>
       </c>
       <c r="M27" s="2"/>
       <c r="N27" s="2"/>
@@ -4749,31 +4726,31 @@
         <v>41</v>
       </c>
       <c r="AE27" t="s" s="2">
+        <v>227</v>
+      </c>
+      <c r="AF27" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AG27" t="s" s="2">
+        <v>52</v>
+      </c>
+      <c r="AH27" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AI27" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AJ27" t="s" s="2">
+        <v>231</v>
+      </c>
+      <c r="AK27" t="s" s="2">
+        <v>232</v>
+      </c>
+      <c r="AL27" t="s" s="2">
         <v>233</v>
       </c>
-      <c r="AF27" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AG27" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AH27" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AI27" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AJ27" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AK27" t="s" s="2">
-        <v>237</v>
-      </c>
-      <c r="AL27" t="s" s="2">
-        <v>231</v>
-      </c>
       <c r="AM27" t="s" s="2">
-        <v>41</v>
+        <v>234</v>
       </c>
       <c r="AN27" t="s" s="2">
         <v>41</v>
@@ -4781,7 +4758,7 @@
     </row>
     <row r="28" hidden="true">
       <c r="A28" t="s" s="2">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="B28" s="2"/>
       <c r="C28" t="s" s="2">
@@ -4789,10 +4766,10 @@
       </c>
       <c r="D28" s="2"/>
       <c r="E28" t="s" s="2">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="F28" t="s" s="2">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="G28" t="s" s="2">
         <v>41</v>
@@ -4801,16 +4778,16 @@
         <v>41</v>
       </c>
       <c r="I28" t="s" s="2">
-        <v>53</v>
+        <v>41</v>
       </c>
       <c r="J28" t="s" s="2">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="M28" s="2"/>
       <c r="N28" s="2"/>
@@ -4861,13 +4838,13 @@
         <v>41</v>
       </c>
       <c r="AE28" t="s" s="2">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="AG28" t="s" s="2">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="AH28" t="s" s="2">
         <v>41</v>
@@ -4876,16 +4853,16 @@
         <v>41</v>
       </c>
       <c r="AJ28" t="s" s="2">
-        <v>242</v>
+        <v>41</v>
       </c>
       <c r="AK28" t="s" s="2">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="AL28" t="s" s="2">
-        <v>244</v>
+        <v>233</v>
       </c>
       <c r="AM28" t="s" s="2">
-        <v>245</v>
+        <v>41</v>
       </c>
       <c r="AN28" t="s" s="2">
         <v>41</v>
@@ -4893,7 +4870,7 @@
     </row>
     <row r="29" hidden="true">
       <c r="A29" t="s" s="2">
-        <v>246</v>
+        <v>240</v>
       </c>
       <c r="B29" s="2"/>
       <c r="C29" t="s" s="2">
@@ -4901,10 +4878,10 @@
       </c>
       <c r="D29" s="2"/>
       <c r="E29" t="s" s="2">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="F29" t="s" s="2">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="G29" t="s" s="2">
         <v>41</v>
@@ -4916,13 +4893,13 @@
         <v>53</v>
       </c>
       <c r="J29" t="s" s="2">
-        <v>247</v>
+        <v>241</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>248</v>
+        <v>242</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>249</v>
+        <v>243</v>
       </c>
       <c r="M29" s="2"/>
       <c r="N29" s="2"/>
@@ -4973,31 +4950,31 @@
         <v>41</v>
       </c>
       <c r="AE29" t="s" s="2">
+        <v>240</v>
+      </c>
+      <c r="AF29" t="s" s="2">
+        <v>52</v>
+      </c>
+      <c r="AG29" t="s" s="2">
+        <v>52</v>
+      </c>
+      <c r="AH29" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AI29" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AJ29" t="s" s="2">
+        <v>244</v>
+      </c>
+      <c r="AK29" t="s" s="2">
+        <v>245</v>
+      </c>
+      <c r="AL29" t="s" s="2">
         <v>246</v>
       </c>
-      <c r="AF29" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AG29" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AH29" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AI29" t="s" s="2">
-        <v>250</v>
-      </c>
-      <c r="AJ29" t="s" s="2">
-        <v>251</v>
-      </c>
-      <c r="AK29" t="s" s="2">
-        <v>252</v>
-      </c>
-      <c r="AL29" t="s" s="2">
-        <v>253</v>
-      </c>
       <c r="AM29" t="s" s="2">
-        <v>254</v>
+        <v>247</v>
       </c>
       <c r="AN29" t="s" s="2">
         <v>41</v>
@@ -5005,7 +4982,7 @@
     </row>
     <row r="30" hidden="true">
       <c r="A30" t="s" s="2">
-        <v>255</v>
+        <v>248</v>
       </c>
       <c r="B30" s="2"/>
       <c r="C30" t="s" s="2">
@@ -5016,7 +4993,7 @@
         <v>42</v>
       </c>
       <c r="F30" t="s" s="2">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="G30" t="s" s="2">
         <v>41</v>
@@ -5025,16 +5002,16 @@
         <v>41</v>
       </c>
       <c r="I30" t="s" s="2">
-        <v>41</v>
+        <v>53</v>
       </c>
       <c r="J30" t="s" s="2">
-        <v>115</v>
+        <v>249</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>116</v>
+        <v>250</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>117</v>
+        <v>251</v>
       </c>
       <c r="M30" s="2"/>
       <c r="N30" s="2"/>
@@ -5085,31 +5062,31 @@
         <v>41</v>
       </c>
       <c r="AE30" t="s" s="2">
-        <v>118</v>
+        <v>248</v>
       </c>
       <c r="AF30" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG30" t="s" s="2">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="AH30" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AI30" t="s" s="2">
-        <v>41</v>
+        <v>252</v>
       </c>
       <c r="AJ30" t="s" s="2">
-        <v>41</v>
+        <v>253</v>
       </c>
       <c r="AK30" t="s" s="2">
-        <v>119</v>
+        <v>254</v>
       </c>
       <c r="AL30" t="s" s="2">
-        <v>41</v>
+        <v>255</v>
       </c>
       <c r="AM30" t="s" s="2">
-        <v>41</v>
+        <v>256</v>
       </c>
       <c r="AN30" t="s" s="2">
         <v>41</v>
@@ -5117,18 +5094,18 @@
     </row>
     <row r="31" hidden="true">
       <c r="A31" t="s" s="2">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="B31" s="2"/>
       <c r="C31" t="s" s="2">
-        <v>97</v>
+        <v>41</v>
       </c>
       <c r="D31" s="2"/>
       <c r="E31" t="s" s="2">
         <v>42</v>
       </c>
       <c r="F31" t="s" s="2">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="G31" t="s" s="2">
         <v>41</v>
@@ -5140,17 +5117,15 @@
         <v>41</v>
       </c>
       <c r="J31" t="s" s="2">
-        <v>98</v>
+        <v>115</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>99</v>
+        <v>116</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>121</v>
-      </c>
-      <c r="M31" t="s" s="2">
-        <v>101</v>
-      </c>
+        <v>117</v>
+      </c>
+      <c r="M31" s="2"/>
       <c r="N31" s="2"/>
       <c r="O31" t="s" s="2">
         <v>41</v>
@@ -5199,13 +5174,13 @@
         <v>41</v>
       </c>
       <c r="AE31" t="s" s="2">
-        <v>125</v>
+        <v>118</v>
       </c>
       <c r="AF31" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG31" t="s" s="2">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="AH31" t="s" s="2">
         <v>41</v>
@@ -5231,11 +5206,11 @@
     </row>
     <row r="32" hidden="true">
       <c r="A32" t="s" s="2">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="B32" s="2"/>
       <c r="C32" t="s" s="2">
-        <v>258</v>
+        <v>97</v>
       </c>
       <c r="D32" s="2"/>
       <c r="E32" t="s" s="2">
@@ -5248,19 +5223,19 @@
         <v>41</v>
       </c>
       <c r="H32" t="s" s="2">
-        <v>53</v>
+        <v>41</v>
       </c>
       <c r="I32" t="s" s="2">
-        <v>53</v>
+        <v>41</v>
       </c>
       <c r="J32" t="s" s="2">
         <v>98</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>259</v>
+        <v>121</v>
       </c>
       <c r="M32" t="s" s="2">
         <v>101</v>
@@ -5313,7 +5288,7 @@
         <v>41</v>
       </c>
       <c r="AE32" t="s" s="2">
-        <v>260</v>
+        <v>125</v>
       </c>
       <c r="AF32" t="s" s="2">
         <v>42</v>
@@ -5331,7 +5306,7 @@
         <v>41</v>
       </c>
       <c r="AK32" t="s" s="2">
-        <v>95</v>
+        <v>119</v>
       </c>
       <c r="AL32" t="s" s="2">
         <v>41</v>
@@ -5345,38 +5320,40 @@
     </row>
     <row r="33" hidden="true">
       <c r="A33" t="s" s="2">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="B33" s="2"/>
       <c r="C33" t="s" s="2">
-        <v>41</v>
+        <v>260</v>
       </c>
       <c r="D33" s="2"/>
       <c r="E33" t="s" s="2">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="F33" t="s" s="2">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="G33" t="s" s="2">
         <v>41</v>
       </c>
       <c r="H33" t="s" s="2">
-        <v>41</v>
+        <v>53</v>
       </c>
       <c r="I33" t="s" s="2">
         <v>53</v>
       </c>
       <c r="J33" t="s" s="2">
-        <v>262</v>
+        <v>98</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>263</v>
+        <v>104</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>264</v>
-      </c>
-      <c r="M33" s="2"/>
+        <v>261</v>
+      </c>
+      <c r="M33" t="s" s="2">
+        <v>101</v>
+      </c>
       <c r="N33" s="2"/>
       <c r="O33" t="s" s="2">
         <v>41</v>
@@ -5425,13 +5402,13 @@
         <v>41</v>
       </c>
       <c r="AE33" t="s" s="2">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="AG33" t="s" s="2">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="AH33" t="s" s="2">
         <v>41</v>
@@ -5440,10 +5417,10 @@
         <v>41</v>
       </c>
       <c r="AJ33" t="s" s="2">
-        <v>265</v>
+        <v>41</v>
       </c>
       <c r="AK33" t="s" s="2">
-        <v>266</v>
+        <v>95</v>
       </c>
       <c r="AL33" t="s" s="2">
         <v>41</v>
@@ -5457,7 +5434,7 @@
     </row>
     <row r="34" hidden="true">
       <c r="A34" t="s" s="2">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="B34" s="2"/>
       <c r="C34" t="s" s="2">
@@ -5465,7 +5442,7 @@
       </c>
       <c r="D34" s="2"/>
       <c r="E34" t="s" s="2">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="F34" t="s" s="2">
         <v>52</v>
@@ -5477,16 +5454,16 @@
         <v>41</v>
       </c>
       <c r="I34" t="s" s="2">
-        <v>41</v>
+        <v>53</v>
       </c>
       <c r="J34" t="s" s="2">
-        <v>170</v>
+        <v>264</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="M34" s="2"/>
       <c r="N34" s="2"/>
@@ -5537,25 +5514,25 @@
         <v>41</v>
       </c>
       <c r="AE34" t="s" s="2">
+        <v>263</v>
+      </c>
+      <c r="AF34" t="s" s="2">
+        <v>52</v>
+      </c>
+      <c r="AG34" t="s" s="2">
+        <v>52</v>
+      </c>
+      <c r="AH34" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AI34" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AJ34" t="s" s="2">
         <v>267</v>
       </c>
-      <c r="AF34" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AG34" t="s" s="2">
-        <v>52</v>
-      </c>
-      <c r="AH34" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AI34" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AJ34" t="s" s="2">
-        <v>270</v>
-      </c>
       <c r="AK34" t="s" s="2">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="AL34" t="s" s="2">
         <v>41</v>
@@ -5569,7 +5546,7 @@
     </row>
     <row r="35" hidden="true">
       <c r="A35" t="s" s="2">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="B35" s="2"/>
       <c r="C35" t="s" s="2">
@@ -5586,30 +5563,26 @@
         <v>41</v>
       </c>
       <c r="H35" t="s" s="2">
-        <v>53</v>
+        <v>41</v>
       </c>
       <c r="I35" t="s" s="2">
-        <v>53</v>
+        <v>41</v>
       </c>
       <c r="J35" t="s" s="2">
-        <v>273</v>
+        <v>170</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>275</v>
-      </c>
-      <c r="M35" t="s" s="2">
-        <v>276</v>
-      </c>
+        <v>271</v>
+      </c>
+      <c r="M35" s="2"/>
       <c r="N35" s="2"/>
       <c r="O35" t="s" s="2">
         <v>41</v>
       </c>
-      <c r="P35" t="s" s="2">
-        <v>277</v>
-      </c>
+      <c r="P35" s="2"/>
       <c r="Q35" t="s" s="2">
         <v>41</v>
       </c>
@@ -5653,31 +5626,31 @@
         <v>41</v>
       </c>
       <c r="AE35" t="s" s="2">
+        <v>269</v>
+      </c>
+      <c r="AF35" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AG35" t="s" s="2">
+        <v>52</v>
+      </c>
+      <c r="AH35" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AI35" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AJ35" t="s" s="2">
         <v>272</v>
       </c>
-      <c r="AF35" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AG35" t="s" s="2">
-        <v>52</v>
-      </c>
-      <c r="AH35" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AI35" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AJ35" t="s" s="2">
-        <v>278</v>
-      </c>
       <c r="AK35" t="s" s="2">
-        <v>279</v>
+        <v>273</v>
       </c>
       <c r="AL35" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AM35" t="s" s="2">
-        <v>280</v>
+        <v>41</v>
       </c>
       <c r="AN35" t="s" s="2">
         <v>41</v>
@@ -5685,7 +5658,7 @@
     </row>
     <row r="36" hidden="true">
       <c r="A36" t="s" s="2">
-        <v>281</v>
+        <v>274</v>
       </c>
       <c r="B36" s="2"/>
       <c r="C36" t="s" s="2">
@@ -5696,32 +5669,36 @@
         <v>42</v>
       </c>
       <c r="F36" t="s" s="2">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="G36" t="s" s="2">
         <v>41</v>
       </c>
       <c r="H36" t="s" s="2">
-        <v>41</v>
+        <v>53</v>
       </c>
       <c r="I36" t="s" s="2">
-        <v>41</v>
+        <v>53</v>
       </c>
       <c r="J36" t="s" s="2">
-        <v>137</v>
+        <v>275</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>282</v>
+        <v>276</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>283</v>
-      </c>
-      <c r="M36" s="2"/>
+        <v>277</v>
+      </c>
+      <c r="M36" t="s" s="2">
+        <v>278</v>
+      </c>
       <c r="N36" s="2"/>
       <c r="O36" t="s" s="2">
         <v>41</v>
       </c>
-      <c r="P36" s="2"/>
+      <c r="P36" t="s" s="2">
+        <v>279</v>
+      </c>
       <c r="Q36" t="s" s="2">
         <v>41</v>
       </c>
@@ -5741,13 +5718,13 @@
         <v>41</v>
       </c>
       <c r="W36" t="s" s="2">
-        <v>284</v>
+        <v>41</v>
       </c>
       <c r="X36" t="s" s="2">
-        <v>285</v>
+        <v>41</v>
       </c>
       <c r="Y36" t="s" s="2">
-        <v>286</v>
+        <v>41</v>
       </c>
       <c r="Z36" t="s" s="2">
         <v>41</v>
@@ -5765,31 +5742,31 @@
         <v>41</v>
       </c>
       <c r="AE36" t="s" s="2">
+        <v>274</v>
+      </c>
+      <c r="AF36" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AG36" t="s" s="2">
+        <v>52</v>
+      </c>
+      <c r="AH36" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AI36" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AJ36" t="s" s="2">
+        <v>280</v>
+      </c>
+      <c r="AK36" t="s" s="2">
         <v>281</v>
       </c>
-      <c r="AF36" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AG36" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AH36" t="s" s="2">
-        <v>287</v>
-      </c>
-      <c r="AI36" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AJ36" t="s" s="2">
-        <v>288</v>
-      </c>
-      <c r="AK36" t="s" s="2">
-        <v>289</v>
-      </c>
       <c r="AL36" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AM36" t="s" s="2">
-        <v>290</v>
+        <v>282</v>
       </c>
       <c r="AN36" t="s" s="2">
         <v>41</v>
@@ -5797,7 +5774,7 @@
     </row>
     <row r="37" hidden="true">
       <c r="A37" t="s" s="2">
-        <v>291</v>
+        <v>283</v>
       </c>
       <c r="B37" s="2"/>
       <c r="C37" t="s" s="2">
@@ -5823,10 +5800,10 @@
         <v>137</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>292</v>
+        <v>284</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>293</v>
+        <v>285</v>
       </c>
       <c r="M37" s="2"/>
       <c r="N37" s="2"/>
@@ -5853,13 +5830,13 @@
         <v>41</v>
       </c>
       <c r="W37" t="s" s="2">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="X37" t="s" s="2">
-        <v>294</v>
+        <v>287</v>
       </c>
       <c r="Y37" t="s" s="2">
-        <v>295</v>
+        <v>288</v>
       </c>
       <c r="Z37" t="s" s="2">
         <v>41</v>
@@ -5877,7 +5854,7 @@
         <v>41</v>
       </c>
       <c r="AE37" t="s" s="2">
-        <v>291</v>
+        <v>283</v>
       </c>
       <c r="AF37" t="s" s="2">
         <v>42</v>
@@ -5886,22 +5863,22 @@
         <v>43</v>
       </c>
       <c r="AH37" t="s" s="2">
-        <v>296</v>
+        <v>289</v>
       </c>
       <c r="AI37" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AJ37" t="s" s="2">
-        <v>297</v>
+        <v>290</v>
       </c>
       <c r="AK37" t="s" s="2">
-        <v>298</v>
+        <v>291</v>
       </c>
       <c r="AL37" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AM37" t="s" s="2">
-        <v>299</v>
+        <v>292</v>
       </c>
       <c r="AN37" t="s" s="2">
         <v>41</v>
@@ -5909,7 +5886,7 @@
     </row>
     <row r="38" hidden="true">
       <c r="A38" t="s" s="2">
-        <v>300</v>
+        <v>293</v>
       </c>
       <c r="B38" s="2"/>
       <c r="C38" t="s" s="2">
@@ -5932,17 +5909,15 @@
         <v>41</v>
       </c>
       <c r="J38" t="s" s="2">
-        <v>301</v>
+        <v>137</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>302</v>
+        <v>294</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>303</v>
-      </c>
-      <c r="M38" t="s" s="2">
-        <v>304</v>
-      </c>
+        <v>295</v>
+      </c>
+      <c r="M38" s="2"/>
       <c r="N38" s="2"/>
       <c r="O38" t="s" s="2">
         <v>41</v>
@@ -5967,13 +5942,13 @@
         <v>41</v>
       </c>
       <c r="W38" t="s" s="2">
-        <v>41</v>
+        <v>286</v>
       </c>
       <c r="X38" t="s" s="2">
-        <v>41</v>
+        <v>296</v>
       </c>
       <c r="Y38" t="s" s="2">
-        <v>41</v>
+        <v>297</v>
       </c>
       <c r="Z38" t="s" s="2">
         <v>41</v>
@@ -5991,7 +5966,7 @@
         <v>41</v>
       </c>
       <c r="AE38" t="s" s="2">
-        <v>300</v>
+        <v>293</v>
       </c>
       <c r="AF38" t="s" s="2">
         <v>42</v>
@@ -6000,30 +5975,30 @@
         <v>43</v>
       </c>
       <c r="AH38" t="s" s="2">
-        <v>41</v>
+        <v>298</v>
       </c>
       <c r="AI38" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AJ38" t="s" s="2">
-        <v>305</v>
+        <v>299</v>
       </c>
       <c r="AK38" t="s" s="2">
-        <v>306</v>
+        <v>300</v>
       </c>
       <c r="AL38" t="s" s="2">
-        <v>307</v>
+        <v>41</v>
       </c>
       <c r="AM38" t="s" s="2">
-        <v>41</v>
+        <v>301</v>
       </c>
       <c r="AN38" t="s" s="2">
-        <v>308</v>
+        <v>41</v>
       </c>
     </row>
     <row r="39" hidden="true">
       <c r="A39" t="s" s="2">
-        <v>309</v>
+        <v>302</v>
       </c>
       <c r="B39" s="2"/>
       <c r="C39" t="s" s="2">
@@ -6034,7 +6009,7 @@
         <v>42</v>
       </c>
       <c r="F39" t="s" s="2">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="G39" t="s" s="2">
         <v>41</v>
@@ -6046,15 +6021,17 @@
         <v>41</v>
       </c>
       <c r="J39" t="s" s="2">
-        <v>310</v>
+        <v>303</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>311</v>
+        <v>304</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>312</v>
-      </c>
-      <c r="M39" s="2"/>
+        <v>305</v>
+      </c>
+      <c r="M39" t="s" s="2">
+        <v>306</v>
+      </c>
       <c r="N39" s="2"/>
       <c r="O39" t="s" s="2">
         <v>41</v>
@@ -6103,39 +6080,39 @@
         <v>41</v>
       </c>
       <c r="AE39" t="s" s="2">
+        <v>302</v>
+      </c>
+      <c r="AF39" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AG39" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AH39" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AI39" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AJ39" t="s" s="2">
+        <v>307</v>
+      </c>
+      <c r="AK39" t="s" s="2">
+        <v>308</v>
+      </c>
+      <c r="AL39" t="s" s="2">
         <v>309</v>
       </c>
-      <c r="AF39" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AG39" t="s" s="2">
-        <v>52</v>
-      </c>
-      <c r="AH39" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AI39" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AJ39" t="s" s="2">
-        <v>313</v>
-      </c>
-      <c r="AK39" t="s" s="2">
-        <v>314</v>
-      </c>
-      <c r="AL39" t="s" s="2">
-        <v>41</v>
-      </c>
       <c r="AM39" t="s" s="2">
-        <v>315</v>
+        <v>41</v>
       </c>
       <c r="AN39" t="s" s="2">
-        <v>41</v>
+        <v>310</v>
       </c>
     </row>
     <row r="40" hidden="true">
       <c r="A40" t="s" s="2">
-        <v>316</v>
+        <v>311</v>
       </c>
       <c r="B40" s="2"/>
       <c r="C40" t="s" s="2">
@@ -6146,7 +6123,7 @@
         <v>42</v>
       </c>
       <c r="F40" t="s" s="2">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="G40" t="s" s="2">
         <v>41</v>
@@ -6158,13 +6135,13 @@
         <v>41</v>
       </c>
       <c r="J40" t="s" s="2">
-        <v>317</v>
+        <v>312</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>318</v>
+        <v>313</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>319</v>
+        <v>314</v>
       </c>
       <c r="M40" s="2"/>
       <c r="N40" s="2"/>
@@ -6215,31 +6192,31 @@
         <v>41</v>
       </c>
       <c r="AE40" t="s" s="2">
+        <v>311</v>
+      </c>
+      <c r="AF40" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AG40" t="s" s="2">
+        <v>52</v>
+      </c>
+      <c r="AH40" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AI40" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AJ40" t="s" s="2">
+        <v>315</v>
+      </c>
+      <c r="AK40" t="s" s="2">
         <v>316</v>
       </c>
-      <c r="AF40" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AG40" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AH40" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AI40" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AJ40" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AK40" t="s" s="2">
-        <v>320</v>
-      </c>
       <c r="AL40" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AM40" t="s" s="2">
-        <v>321</v>
+        <v>317</v>
       </c>
       <c r="AN40" t="s" s="2">
         <v>41</v>
@@ -6247,7 +6224,7 @@
     </row>
     <row r="41" hidden="true">
       <c r="A41" t="s" s="2">
-        <v>322</v>
+        <v>318</v>
       </c>
       <c r="B41" s="2"/>
       <c r="C41" t="s" s="2">
@@ -6270,13 +6247,13 @@
         <v>41</v>
       </c>
       <c r="J41" t="s" s="2">
-        <v>323</v>
+        <v>319</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>324</v>
+        <v>320</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>325</v>
+        <v>321</v>
       </c>
       <c r="M41" s="2"/>
       <c r="N41" s="2"/>
@@ -6327,7 +6304,7 @@
         <v>41</v>
       </c>
       <c r="AE41" t="s" s="2">
-        <v>322</v>
+        <v>318</v>
       </c>
       <c r="AF41" t="s" s="2">
         <v>42</v>
@@ -6342,16 +6319,16 @@
         <v>41</v>
       </c>
       <c r="AJ41" t="s" s="2">
-        <v>326</v>
+        <v>41</v>
       </c>
       <c r="AK41" t="s" s="2">
-        <v>327</v>
+        <v>322</v>
       </c>
       <c r="AL41" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AM41" t="s" s="2">
-        <v>41</v>
+        <v>323</v>
       </c>
       <c r="AN41" t="s" s="2">
         <v>41</v>
@@ -6359,7 +6336,7 @@
     </row>
     <row r="42" hidden="true">
       <c r="A42" t="s" s="2">
-        <v>328</v>
+        <v>324</v>
       </c>
       <c r="B42" s="2"/>
       <c r="C42" t="s" s="2">
@@ -6370,7 +6347,7 @@
         <v>42</v>
       </c>
       <c r="F42" t="s" s="2">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="G42" t="s" s="2">
         <v>41</v>
@@ -6382,13 +6359,13 @@
         <v>41</v>
       </c>
       <c r="J42" t="s" s="2">
-        <v>115</v>
+        <v>325</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>116</v>
+        <v>326</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>117</v>
+        <v>327</v>
       </c>
       <c r="M42" s="2"/>
       <c r="N42" s="2"/>
@@ -6439,13 +6416,13 @@
         <v>41</v>
       </c>
       <c r="AE42" t="s" s="2">
-        <v>118</v>
+        <v>324</v>
       </c>
       <c r="AF42" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG42" t="s" s="2">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="AH42" t="s" s="2">
         <v>41</v>
@@ -6454,10 +6431,10 @@
         <v>41</v>
       </c>
       <c r="AJ42" t="s" s="2">
-        <v>41</v>
+        <v>328</v>
       </c>
       <c r="AK42" t="s" s="2">
-        <v>119</v>
+        <v>329</v>
       </c>
       <c r="AL42" t="s" s="2">
         <v>41</v>
@@ -6471,18 +6448,18 @@
     </row>
     <row r="43" hidden="true">
       <c r="A43" t="s" s="2">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="B43" s="2"/>
       <c r="C43" t="s" s="2">
-        <v>97</v>
+        <v>41</v>
       </c>
       <c r="D43" s="2"/>
       <c r="E43" t="s" s="2">
         <v>42</v>
       </c>
       <c r="F43" t="s" s="2">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="G43" t="s" s="2">
         <v>41</v>
@@ -6494,17 +6471,15 @@
         <v>41</v>
       </c>
       <c r="J43" t="s" s="2">
-        <v>98</v>
+        <v>115</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>99</v>
+        <v>116</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>121</v>
-      </c>
-      <c r="M43" t="s" s="2">
-        <v>101</v>
-      </c>
+        <v>117</v>
+      </c>
+      <c r="M43" s="2"/>
       <c r="N43" s="2"/>
       <c r="O43" t="s" s="2">
         <v>41</v>
@@ -6541,25 +6516,25 @@
         <v>41</v>
       </c>
       <c r="AA43" t="s" s="2">
-        <v>122</v>
+        <v>41</v>
       </c>
       <c r="AB43" t="s" s="2">
-        <v>123</v>
+        <v>41</v>
       </c>
       <c r="AC43" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AD43" t="s" s="2">
-        <v>124</v>
+        <v>41</v>
       </c>
       <c r="AE43" t="s" s="2">
-        <v>125</v>
+        <v>118</v>
       </c>
       <c r="AF43" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG43" t="s" s="2">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="AH43" t="s" s="2">
         <v>41</v>
@@ -6585,18 +6560,18 @@
     </row>
     <row r="44" hidden="true">
       <c r="A44" t="s" s="2">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="B44" s="2"/>
       <c r="C44" t="s" s="2">
-        <v>41</v>
+        <v>97</v>
       </c>
       <c r="D44" s="2"/>
       <c r="E44" t="s" s="2">
         <v>42</v>
       </c>
       <c r="F44" t="s" s="2">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="G44" t="s" s="2">
         <v>41</v>
@@ -6605,18 +6580,20 @@
         <v>41</v>
       </c>
       <c r="I44" t="s" s="2">
-        <v>53</v>
+        <v>41</v>
       </c>
       <c r="J44" t="s" s="2">
-        <v>331</v>
+        <v>98</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>332</v>
+        <v>99</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>333</v>
-      </c>
-      <c r="M44" s="2"/>
+        <v>121</v>
+      </c>
+      <c r="M44" t="s" s="2">
+        <v>101</v>
+      </c>
       <c r="N44" s="2"/>
       <c r="O44" t="s" s="2">
         <v>41</v>
@@ -6653,25 +6630,25 @@
         <v>41</v>
       </c>
       <c r="AA44" t="s" s="2">
-        <v>41</v>
+        <v>122</v>
       </c>
       <c r="AB44" t="s" s="2">
-        <v>41</v>
+        <v>123</v>
       </c>
       <c r="AC44" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AD44" t="s" s="2">
-        <v>41</v>
+        <v>124</v>
       </c>
       <c r="AE44" t="s" s="2">
-        <v>334</v>
+        <v>125</v>
       </c>
       <c r="AF44" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG44" t="s" s="2">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="AH44" t="s" s="2">
         <v>41</v>
@@ -6683,13 +6660,13 @@
         <v>41</v>
       </c>
       <c r="AK44" t="s" s="2">
-        <v>335</v>
+        <v>119</v>
       </c>
       <c r="AL44" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AM44" t="s" s="2">
-        <v>95</v>
+        <v>41</v>
       </c>
       <c r="AN44" t="s" s="2">
         <v>41</v>
@@ -6697,7 +6674,7 @@
     </row>
     <row r="45" hidden="true">
       <c r="A45" t="s" s="2">
-        <v>336</v>
+        <v>332</v>
       </c>
       <c r="B45" s="2"/>
       <c r="C45" t="s" s="2">
@@ -6720,13 +6697,13 @@
         <v>53</v>
       </c>
       <c r="J45" t="s" s="2">
-        <v>337</v>
+        <v>333</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>338</v>
+        <v>334</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>339</v>
+        <v>335</v>
       </c>
       <c r="M45" s="2"/>
       <c r="N45" s="2"/>
@@ -6777,7 +6754,7 @@
         <v>41</v>
       </c>
       <c r="AE45" t="s" s="2">
-        <v>340</v>
+        <v>336</v>
       </c>
       <c r="AF45" t="s" s="2">
         <v>42</v>
@@ -6795,7 +6772,7 @@
         <v>41</v>
       </c>
       <c r="AK45" t="s" s="2">
-        <v>341</v>
+        <v>337</v>
       </c>
       <c r="AL45" t="s" s="2">
         <v>41</v>
@@ -6809,7 +6786,7 @@
     </row>
     <row r="46" hidden="true">
       <c r="A46" t="s" s="2">
-        <v>342</v>
+        <v>338</v>
       </c>
       <c r="B46" s="2"/>
       <c r="C46" t="s" s="2">
@@ -6817,7 +6794,7 @@
       </c>
       <c r="D46" s="2"/>
       <c r="E46" t="s" s="2">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="F46" t="s" s="2">
         <v>52</v>
@@ -6829,16 +6806,16 @@
         <v>41</v>
       </c>
       <c r="I46" t="s" s="2">
-        <v>41</v>
+        <v>53</v>
       </c>
       <c r="J46" t="s" s="2">
-        <v>115</v>
+        <v>339</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>343</v>
+        <v>340</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>344</v>
+        <v>341</v>
       </c>
       <c r="M46" s="2"/>
       <c r="N46" s="2"/>
@@ -6889,10 +6866,10 @@
         <v>41</v>
       </c>
       <c r="AE46" t="s" s="2">
-        <v>345</v>
+        <v>342</v>
       </c>
       <c r="AF46" t="s" s="2">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="AG46" t="s" s="2">
         <v>52</v>
@@ -6907,7 +6884,7 @@
         <v>41</v>
       </c>
       <c r="AK46" t="s" s="2">
-        <v>346</v>
+        <v>343</v>
       </c>
       <c r="AL46" t="s" s="2">
         <v>41</v>
@@ -6921,7 +6898,7 @@
     </row>
     <row r="47" hidden="true">
       <c r="A47" t="s" s="2">
-        <v>347</v>
+        <v>344</v>
       </c>
       <c r="B47" s="2"/>
       <c r="C47" t="s" s="2">
@@ -6929,7 +6906,7 @@
       </c>
       <c r="D47" s="2"/>
       <c r="E47" t="s" s="2">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="F47" t="s" s="2">
         <v>52</v>
@@ -6944,13 +6921,13 @@
         <v>41</v>
       </c>
       <c r="J47" t="s" s="2">
-        <v>247</v>
+        <v>115</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>348</v>
+        <v>345</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>349</v>
+        <v>346</v>
       </c>
       <c r="M47" s="2"/>
       <c r="N47" s="2"/>
@@ -7004,7 +6981,7 @@
         <v>347</v>
       </c>
       <c r="AF47" t="s" s="2">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="AG47" t="s" s="2">
         <v>52</v>
@@ -7013,19 +6990,19 @@
         <v>41</v>
       </c>
       <c r="AI47" t="s" s="2">
-        <v>350</v>
+        <v>41</v>
       </c>
       <c r="AJ47" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AK47" t="s" s="2">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="AL47" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AM47" t="s" s="2">
-        <v>41</v>
+        <v>95</v>
       </c>
       <c r="AN47" t="s" s="2">
         <v>41</v>
@@ -7033,7 +7010,7 @@
     </row>
     <row r="48" hidden="true">
       <c r="A48" t="s" s="2">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="B48" s="2"/>
       <c r="C48" t="s" s="2">
@@ -7056,13 +7033,13 @@
         <v>41</v>
       </c>
       <c r="J48" t="s" s="2">
-        <v>115</v>
+        <v>249</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>116</v>
+        <v>350</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>117</v>
+        <v>351</v>
       </c>
       <c r="M48" s="2"/>
       <c r="N48" s="2"/>
@@ -7113,7 +7090,7 @@
         <v>41</v>
       </c>
       <c r="AE48" t="s" s="2">
-        <v>118</v>
+        <v>349</v>
       </c>
       <c r="AF48" t="s" s="2">
         <v>42</v>
@@ -7125,13 +7102,13 @@
         <v>41</v>
       </c>
       <c r="AI48" t="s" s="2">
-        <v>41</v>
+        <v>352</v>
       </c>
       <c r="AJ48" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AK48" t="s" s="2">
-        <v>119</v>
+        <v>353</v>
       </c>
       <c r="AL48" t="s" s="2">
         <v>41</v>
@@ -7145,18 +7122,18 @@
     </row>
     <row r="49" hidden="true">
       <c r="A49" t="s" s="2">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="B49" s="2"/>
       <c r="C49" t="s" s="2">
-        <v>97</v>
+        <v>41</v>
       </c>
       <c r="D49" s="2"/>
       <c r="E49" t="s" s="2">
         <v>42</v>
       </c>
       <c r="F49" t="s" s="2">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="G49" t="s" s="2">
         <v>41</v>
@@ -7168,17 +7145,15 @@
         <v>41</v>
       </c>
       <c r="J49" t="s" s="2">
-        <v>98</v>
+        <v>115</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>99</v>
+        <v>116</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>121</v>
-      </c>
-      <c r="M49" t="s" s="2">
-        <v>101</v>
-      </c>
+        <v>117</v>
+      </c>
+      <c r="M49" s="2"/>
       <c r="N49" s="2"/>
       <c r="O49" t="s" s="2">
         <v>41</v>
@@ -7227,13 +7202,13 @@
         <v>41</v>
       </c>
       <c r="AE49" t="s" s="2">
-        <v>125</v>
+        <v>118</v>
       </c>
       <c r="AF49" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG49" t="s" s="2">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="AH49" t="s" s="2">
         <v>41</v>
@@ -7259,11 +7234,11 @@
     </row>
     <row r="50" hidden="true">
       <c r="A50" t="s" s="2">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="B50" s="2"/>
       <c r="C50" t="s" s="2">
-        <v>258</v>
+        <v>97</v>
       </c>
       <c r="D50" s="2"/>
       <c r="E50" t="s" s="2">
@@ -7276,19 +7251,19 @@
         <v>41</v>
       </c>
       <c r="H50" t="s" s="2">
-        <v>53</v>
+        <v>41</v>
       </c>
       <c r="I50" t="s" s="2">
-        <v>53</v>
+        <v>41</v>
       </c>
       <c r="J50" t="s" s="2">
         <v>98</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>259</v>
+        <v>121</v>
       </c>
       <c r="M50" t="s" s="2">
         <v>101</v>
@@ -7341,7 +7316,7 @@
         <v>41</v>
       </c>
       <c r="AE50" t="s" s="2">
-        <v>260</v>
+        <v>125</v>
       </c>
       <c r="AF50" t="s" s="2">
         <v>42</v>
@@ -7359,7 +7334,7 @@
         <v>41</v>
       </c>
       <c r="AK50" t="s" s="2">
-        <v>95</v>
+        <v>119</v>
       </c>
       <c r="AL50" t="s" s="2">
         <v>41</v>
@@ -7373,38 +7348,40 @@
     </row>
     <row r="51" hidden="true">
       <c r="A51" t="s" s="2">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="B51" s="2"/>
       <c r="C51" t="s" s="2">
-        <v>41</v>
+        <v>260</v>
       </c>
       <c r="D51" s="2"/>
       <c r="E51" t="s" s="2">
         <v>42</v>
       </c>
       <c r="F51" t="s" s="2">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="G51" t="s" s="2">
         <v>41</v>
       </c>
       <c r="H51" t="s" s="2">
-        <v>41</v>
+        <v>53</v>
       </c>
       <c r="I51" t="s" s="2">
-        <v>41</v>
+        <v>53</v>
       </c>
       <c r="J51" t="s" s="2">
-        <v>115</v>
+        <v>98</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>356</v>
+        <v>104</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>357</v>
-      </c>
-      <c r="M51" s="2"/>
+        <v>261</v>
+      </c>
+      <c r="M51" t="s" s="2">
+        <v>101</v>
+      </c>
       <c r="N51" s="2"/>
       <c r="O51" t="s" s="2">
         <v>41</v>
@@ -7453,13 +7430,13 @@
         <v>41</v>
       </c>
       <c r="AE51" t="s" s="2">
-        <v>355</v>
+        <v>262</v>
       </c>
       <c r="AF51" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG51" t="s" s="2">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="AH51" t="s" s="2">
         <v>41</v>
@@ -7471,7 +7448,7 @@
         <v>41</v>
       </c>
       <c r="AK51" t="s" s="2">
-        <v>358</v>
+        <v>95</v>
       </c>
       <c r="AL51" t="s" s="2">
         <v>41</v>
@@ -7485,7 +7462,7 @@
     </row>
     <row r="52" hidden="true">
       <c r="A52" t="s" s="2">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="B52" s="2"/>
       <c r="C52" t="s" s="2">
@@ -7508,17 +7485,15 @@
         <v>41</v>
       </c>
       <c r="J52" t="s" s="2">
-        <v>137</v>
+        <v>115</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>361</v>
-      </c>
-      <c r="M52" t="s" s="2">
-        <v>362</v>
-      </c>
+        <v>359</v>
+      </c>
+      <c r="M52" s="2"/>
       <c r="N52" s="2"/>
       <c r="O52" t="s" s="2">
         <v>41</v>
@@ -7543,13 +7518,13 @@
         <v>41</v>
       </c>
       <c r="W52" t="s" s="2">
-        <v>284</v>
+        <v>41</v>
       </c>
       <c r="X52" t="s" s="2">
-        <v>363</v>
+        <v>41</v>
       </c>
       <c r="Y52" t="s" s="2">
-        <v>364</v>
+        <v>41</v>
       </c>
       <c r="Z52" t="s" s="2">
         <v>41</v>
@@ -7567,7 +7542,7 @@
         <v>41</v>
       </c>
       <c r="AE52" t="s" s="2">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="AF52" t="s" s="2">
         <v>42</v>
@@ -7585,13 +7560,13 @@
         <v>41</v>
       </c>
       <c r="AK52" t="s" s="2">
-        <v>365</v>
+        <v>360</v>
       </c>
       <c r="AL52" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AM52" t="s" s="2">
-        <v>366</v>
+        <v>41</v>
       </c>
       <c r="AN52" t="s" s="2">
         <v>41</v>
@@ -7599,7 +7574,7 @@
     </row>
     <row r="53" hidden="true">
       <c r="A53" t="s" s="2">
-        <v>367</v>
+        <v>361</v>
       </c>
       <c r="B53" s="2"/>
       <c r="C53" t="s" s="2">
@@ -7625,12 +7600,14 @@
         <v>137</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>368</v>
+        <v>362</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>369</v>
-      </c>
-      <c r="M53" s="2"/>
+        <v>363</v>
+      </c>
+      <c r="M53" t="s" s="2">
+        <v>364</v>
+      </c>
       <c r="N53" s="2"/>
       <c r="O53" t="s" s="2">
         <v>41</v>
@@ -7655,13 +7632,13 @@
         <v>41</v>
       </c>
       <c r="W53" t="s" s="2">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="X53" t="s" s="2">
-        <v>370</v>
+        <v>365</v>
       </c>
       <c r="Y53" t="s" s="2">
-        <v>371</v>
+        <v>366</v>
       </c>
       <c r="Z53" t="s" s="2">
         <v>41</v>
@@ -7679,31 +7656,31 @@
         <v>41</v>
       </c>
       <c r="AE53" t="s" s="2">
+        <v>361</v>
+      </c>
+      <c r="AF53" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AG53" t="s" s="2">
+        <v>52</v>
+      </c>
+      <c r="AH53" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AI53" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AJ53" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AK53" t="s" s="2">
         <v>367</v>
       </c>
-      <c r="AF53" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AG53" t="s" s="2">
-        <v>52</v>
-      </c>
-      <c r="AH53" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AI53" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AJ53" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AK53" t="s" s="2">
-        <v>372</v>
-      </c>
       <c r="AL53" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AM53" t="s" s="2">
-        <v>373</v>
+        <v>368</v>
       </c>
       <c r="AN53" t="s" s="2">
         <v>41</v>
@@ -7711,7 +7688,7 @@
     </row>
     <row r="54" hidden="true">
       <c r="A54" t="s" s="2">
-        <v>374</v>
+        <v>369</v>
       </c>
       <c r="B54" s="2"/>
       <c r="C54" t="s" s="2">
@@ -7734,13 +7711,13 @@
         <v>41</v>
       </c>
       <c r="J54" t="s" s="2">
-        <v>115</v>
+        <v>137</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>116</v>
+        <v>370</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>117</v>
+        <v>371</v>
       </c>
       <c r="M54" s="2"/>
       <c r="N54" s="2"/>
@@ -7767,13 +7744,13 @@
         <v>41</v>
       </c>
       <c r="W54" t="s" s="2">
-        <v>41</v>
+        <v>286</v>
       </c>
       <c r="X54" t="s" s="2">
-        <v>41</v>
+        <v>372</v>
       </c>
       <c r="Y54" t="s" s="2">
-        <v>41</v>
+        <v>373</v>
       </c>
       <c r="Z54" t="s" s="2">
         <v>41</v>
@@ -7791,7 +7768,7 @@
         <v>41</v>
       </c>
       <c r="AE54" t="s" s="2">
-        <v>118</v>
+        <v>369</v>
       </c>
       <c r="AF54" t="s" s="2">
         <v>42</v>
@@ -7809,13 +7786,13 @@
         <v>41</v>
       </c>
       <c r="AK54" t="s" s="2">
-        <v>119</v>
+        <v>374</v>
       </c>
       <c r="AL54" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AM54" t="s" s="2">
-        <v>41</v>
+        <v>375</v>
       </c>
       <c r="AN54" t="s" s="2">
         <v>41</v>
@@ -7823,18 +7800,18 @@
     </row>
     <row r="55" hidden="true">
       <c r="A55" t="s" s="2">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="B55" s="2"/>
       <c r="C55" t="s" s="2">
-        <v>97</v>
+        <v>41</v>
       </c>
       <c r="D55" s="2"/>
       <c r="E55" t="s" s="2">
         <v>42</v>
       </c>
       <c r="F55" t="s" s="2">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="G55" t="s" s="2">
         <v>41</v>
@@ -7846,17 +7823,15 @@
         <v>41</v>
       </c>
       <c r="J55" t="s" s="2">
-        <v>98</v>
+        <v>115</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>99</v>
+        <v>116</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>121</v>
-      </c>
-      <c r="M55" t="s" s="2">
-        <v>101</v>
-      </c>
+        <v>117</v>
+      </c>
+      <c r="M55" s="2"/>
       <c r="N55" s="2"/>
       <c r="O55" t="s" s="2">
         <v>41</v>
@@ -7893,25 +7868,25 @@
         <v>41</v>
       </c>
       <c r="AA55" t="s" s="2">
-        <v>122</v>
+        <v>41</v>
       </c>
       <c r="AB55" t="s" s="2">
-        <v>123</v>
+        <v>41</v>
       </c>
       <c r="AC55" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AD55" t="s" s="2">
-        <v>124</v>
+        <v>41</v>
       </c>
       <c r="AE55" t="s" s="2">
-        <v>125</v>
+        <v>118</v>
       </c>
       <c r="AF55" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG55" t="s" s="2">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="AH55" t="s" s="2">
         <v>41</v>
@@ -7937,11 +7912,11 @@
     </row>
     <row r="56" hidden="true">
       <c r="A56" t="s" s="2">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="B56" s="2"/>
       <c r="C56" t="s" s="2">
-        <v>41</v>
+        <v>97</v>
       </c>
       <c r="D56" s="2"/>
       <c r="E56" t="s" s="2">
@@ -7957,23 +7932,21 @@
         <v>41</v>
       </c>
       <c r="I56" t="s" s="2">
-        <v>53</v>
+        <v>41</v>
       </c>
       <c r="J56" t="s" s="2">
-        <v>377</v>
+        <v>98</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>378</v>
+        <v>99</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>379</v>
+        <v>121</v>
       </c>
       <c r="M56" t="s" s="2">
-        <v>380</v>
-      </c>
-      <c r="N56" t="s" s="2">
-        <v>381</v>
-      </c>
+        <v>101</v>
+      </c>
+      <c r="N56" s="2"/>
       <c r="O56" t="s" s="2">
         <v>41</v>
       </c>
@@ -8009,9 +7982,11 @@
         <v>41</v>
       </c>
       <c r="AA56" t="s" s="2">
-        <v>382</v>
-      </c>
-      <c r="AB56" s="2"/>
+        <v>122</v>
+      </c>
+      <c r="AB56" t="s" s="2">
+        <v>123</v>
+      </c>
       <c r="AC56" t="s" s="2">
         <v>41</v>
       </c>
@@ -8019,7 +7994,7 @@
         <v>124</v>
       </c>
       <c r="AE56" t="s" s="2">
-        <v>383</v>
+        <v>125</v>
       </c>
       <c r="AF56" t="s" s="2">
         <v>42</v>
@@ -8037,13 +8012,13 @@
         <v>41</v>
       </c>
       <c r="AK56" t="s" s="2">
-        <v>384</v>
+        <v>119</v>
       </c>
       <c r="AL56" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AM56" t="s" s="2">
-        <v>385</v>
+        <v>41</v>
       </c>
       <c r="AN56" t="s" s="2">
         <v>41</v>
@@ -8051,11 +8026,9 @@
     </row>
     <row r="57" hidden="true">
       <c r="A57" t="s" s="2">
-        <v>376</v>
-      </c>
-      <c r="B57" t="s" s="2">
-        <v>386</v>
-      </c>
+        <v>378</v>
+      </c>
+      <c r="B57" s="2"/>
       <c r="C57" t="s" s="2">
         <v>41</v>
       </c>
@@ -8064,7 +8037,7 @@
         <v>42</v>
       </c>
       <c r="F57" t="s" s="2">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="G57" t="s" s="2">
         <v>41</v>
@@ -8076,19 +8049,19 @@
         <v>53</v>
       </c>
       <c r="J57" t="s" s="2">
-        <v>377</v>
+        <v>379</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>378</v>
+        <v>380</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>379</v>
+        <v>381</v>
       </c>
       <c r="M57" t="s" s="2">
-        <v>380</v>
+        <v>382</v>
       </c>
       <c r="N57" t="s" s="2">
-        <v>381</v>
+        <v>383</v>
       </c>
       <c r="O57" t="s" s="2">
         <v>41</v>
@@ -8113,31 +8086,29 @@
         <v>41</v>
       </c>
       <c r="W57" t="s" s="2">
-        <v>284</v>
+        <v>41</v>
       </c>
       <c r="X57" t="s" s="2">
-        <v>387</v>
+        <v>41</v>
       </c>
       <c r="Y57" t="s" s="2">
-        <v>388</v>
+        <v>41</v>
       </c>
       <c r="Z57" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AA57" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AB57" t="s" s="2">
-        <v>41</v>
-      </c>
+        <v>384</v>
+      </c>
+      <c r="AB57" s="2"/>
       <c r="AC57" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AD57" t="s" s="2">
-        <v>41</v>
+        <v>124</v>
       </c>
       <c r="AE57" t="s" s="2">
-        <v>383</v>
+        <v>385</v>
       </c>
       <c r="AF57" t="s" s="2">
         <v>42</v>
@@ -8155,13 +8126,13 @@
         <v>41</v>
       </c>
       <c r="AK57" t="s" s="2">
-        <v>384</v>
+        <v>386</v>
       </c>
       <c r="AL57" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AM57" t="s" s="2">
-        <v>385</v>
+        <v>387</v>
       </c>
       <c r="AN57" t="s" s="2">
         <v>41</v>
@@ -8169,9 +8140,11 @@
     </row>
     <row r="58" hidden="true">
       <c r="A58" t="s" s="2">
-        <v>389</v>
-      </c>
-      <c r="B58" s="2"/>
+        <v>378</v>
+      </c>
+      <c r="B58" t="s" s="2">
+        <v>388</v>
+      </c>
       <c r="C58" t="s" s="2">
         <v>41</v>
       </c>
@@ -8189,19 +8162,23 @@
         <v>41</v>
       </c>
       <c r="I58" t="s" s="2">
-        <v>41</v>
+        <v>53</v>
       </c>
       <c r="J58" t="s" s="2">
-        <v>115</v>
+        <v>379</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>116</v>
+        <v>380</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>117</v>
-      </c>
-      <c r="M58" s="2"/>
-      <c r="N58" s="2"/>
+        <v>381</v>
+      </c>
+      <c r="M58" t="s" s="2">
+        <v>382</v>
+      </c>
+      <c r="N58" t="s" s="2">
+        <v>383</v>
+      </c>
       <c r="O58" t="s" s="2">
         <v>41</v>
       </c>
@@ -8225,13 +8202,13 @@
         <v>41</v>
       </c>
       <c r="W58" t="s" s="2">
-        <v>41</v>
+        <v>286</v>
       </c>
       <c r="X58" t="s" s="2">
-        <v>41</v>
+        <v>389</v>
       </c>
       <c r="Y58" t="s" s="2">
-        <v>41</v>
+        <v>390</v>
       </c>
       <c r="Z58" t="s" s="2">
         <v>41</v>
@@ -8249,13 +8226,13 @@
         <v>41</v>
       </c>
       <c r="AE58" t="s" s="2">
-        <v>118</v>
+        <v>385</v>
       </c>
       <c r="AF58" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG58" t="s" s="2">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="AH58" t="s" s="2">
         <v>41</v>
@@ -8267,13 +8244,13 @@
         <v>41</v>
       </c>
       <c r="AK58" t="s" s="2">
-        <v>119</v>
+        <v>386</v>
       </c>
       <c r="AL58" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AM58" t="s" s="2">
-        <v>41</v>
+        <v>387</v>
       </c>
       <c r="AN58" t="s" s="2">
         <v>41</v>
@@ -8281,7 +8258,7 @@
     </row>
     <row r="59" hidden="true">
       <c r="A59" t="s" s="2">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="B59" s="2"/>
       <c r="C59" t="s" s="2">
@@ -8292,7 +8269,7 @@
         <v>42</v>
       </c>
       <c r="F59" t="s" s="2">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="G59" t="s" s="2">
         <v>41</v>
@@ -8304,13 +8281,13 @@
         <v>41</v>
       </c>
       <c r="J59" t="s" s="2">
-        <v>98</v>
+        <v>115</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>391</v>
+        <v>116</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>392</v>
+        <v>117</v>
       </c>
       <c r="M59" s="2"/>
       <c r="N59" s="2"/>
@@ -8349,25 +8326,25 @@
         <v>41</v>
       </c>
       <c r="AA59" t="s" s="2">
-        <v>122</v>
+        <v>41</v>
       </c>
       <c r="AB59" t="s" s="2">
-        <v>123</v>
+        <v>41</v>
       </c>
       <c r="AC59" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AD59" t="s" s="2">
-        <v>124</v>
+        <v>41</v>
       </c>
       <c r="AE59" t="s" s="2">
-        <v>125</v>
+        <v>118</v>
       </c>
       <c r="AF59" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG59" t="s" s="2">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="AH59" t="s" s="2">
         <v>41</v>
@@ -8379,7 +8356,7 @@
         <v>41</v>
       </c>
       <c r="AK59" t="s" s="2">
-        <v>41</v>
+        <v>119</v>
       </c>
       <c r="AL59" t="s" s="2">
         <v>41</v>
@@ -8393,11 +8370,9 @@
     </row>
     <row r="60" hidden="true">
       <c r="A60" t="s" s="2">
-        <v>390</v>
-      </c>
-      <c r="B60" t="s" s="2">
-        <v>393</v>
-      </c>
+        <v>392</v>
+      </c>
+      <c r="B60" s="2"/>
       <c r="C60" t="s" s="2">
         <v>41</v>
       </c>
@@ -8418,13 +8393,13 @@
         <v>41</v>
       </c>
       <c r="J60" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="K60" t="s" s="2">
+        <v>393</v>
+      </c>
+      <c r="L60" t="s" s="2">
         <v>394</v>
-      </c>
-      <c r="K60" t="s" s="2">
-        <v>391</v>
-      </c>
-      <c r="L60" t="s" s="2">
-        <v>392</v>
       </c>
       <c r="M60" s="2"/>
       <c r="N60" s="2"/>
@@ -8463,16 +8438,16 @@
         <v>41</v>
       </c>
       <c r="AA60" t="s" s="2">
-        <v>41</v>
+        <v>122</v>
       </c>
       <c r="AB60" t="s" s="2">
-        <v>41</v>
+        <v>123</v>
       </c>
       <c r="AC60" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AD60" t="s" s="2">
-        <v>41</v>
+        <v>124</v>
       </c>
       <c r="AE60" t="s" s="2">
         <v>125</v>
@@ -8507,9 +8482,11 @@
     </row>
     <row r="61" hidden="true">
       <c r="A61" t="s" s="2">
+        <v>392</v>
+      </c>
+      <c r="B61" t="s" s="2">
         <v>395</v>
       </c>
-      <c r="B61" s="2"/>
       <c r="C61" t="s" s="2">
         <v>41</v>
       </c>
@@ -8518,7 +8495,7 @@
         <v>42</v>
       </c>
       <c r="F61" t="s" s="2">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="G61" t="s" s="2">
         <v>41</v>
@@ -8530,13 +8507,13 @@
         <v>41</v>
       </c>
       <c r="J61" t="s" s="2">
-        <v>115</v>
+        <v>396</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>116</v>
+        <v>397</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>117</v>
+        <v>398</v>
       </c>
       <c r="M61" s="2"/>
       <c r="N61" s="2"/>
@@ -8587,13 +8564,13 @@
         <v>41</v>
       </c>
       <c r="AE61" t="s" s="2">
-        <v>118</v>
+        <v>125</v>
       </c>
       <c r="AF61" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG61" t="s" s="2">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="AH61" t="s" s="2">
         <v>41</v>
@@ -8605,7 +8582,7 @@
         <v>41</v>
       </c>
       <c r="AK61" t="s" s="2">
-        <v>119</v>
+        <v>41</v>
       </c>
       <c r="AL61" t="s" s="2">
         <v>41</v>
@@ -8619,18 +8596,18 @@
     </row>
     <row r="62" hidden="true">
       <c r="A62" t="s" s="2">
-        <v>396</v>
+        <v>399</v>
       </c>
       <c r="B62" s="2"/>
       <c r="C62" t="s" s="2">
-        <v>97</v>
+        <v>41</v>
       </c>
       <c r="D62" s="2"/>
       <c r="E62" t="s" s="2">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="F62" t="s" s="2">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="G62" t="s" s="2">
         <v>41</v>
@@ -8639,27 +8616,29 @@
         <v>41</v>
       </c>
       <c r="I62" t="s" s="2">
-        <v>41</v>
+        <v>53</v>
       </c>
       <c r="J62" t="s" s="2">
-        <v>98</v>
+        <v>65</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>99</v>
+        <v>400</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>121</v>
+        <v>401</v>
       </c>
       <c r="M62" t="s" s="2">
-        <v>101</v>
-      </c>
-      <c r="N62" s="2"/>
+        <v>402</v>
+      </c>
+      <c r="N62" t="s" s="2">
+        <v>403</v>
+      </c>
       <c r="O62" t="s" s="2">
         <v>41</v>
       </c>
       <c r="P62" s="2"/>
       <c r="Q62" t="s" s="2">
-        <v>41</v>
+        <v>404</v>
       </c>
       <c r="R62" t="s" s="2">
         <v>41</v>
@@ -8689,25 +8668,25 @@
         <v>41</v>
       </c>
       <c r="AA62" t="s" s="2">
-        <v>122</v>
+        <v>41</v>
       </c>
       <c r="AB62" t="s" s="2">
-        <v>123</v>
+        <v>41</v>
       </c>
       <c r="AC62" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AD62" t="s" s="2">
-        <v>124</v>
+        <v>41</v>
       </c>
       <c r="AE62" t="s" s="2">
-        <v>125</v>
+        <v>405</v>
       </c>
       <c r="AF62" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG62" t="s" s="2">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="AH62" t="s" s="2">
         <v>41</v>
@@ -8719,13 +8698,13 @@
         <v>41</v>
       </c>
       <c r="AK62" t="s" s="2">
-        <v>119</v>
+        <v>406</v>
       </c>
       <c r="AL62" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AM62" t="s" s="2">
-        <v>41</v>
+        <v>407</v>
       </c>
       <c r="AN62" t="s" s="2">
         <v>41</v>
@@ -8733,7 +8712,7 @@
     </row>
     <row r="63" hidden="true">
       <c r="A63" t="s" s="2">
-        <v>397</v>
+        <v>408</v>
       </c>
       <c r="B63" s="2"/>
       <c r="C63" t="s" s="2">
@@ -8741,7 +8720,7 @@
       </c>
       <c r="D63" s="2"/>
       <c r="E63" t="s" s="2">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="F63" t="s" s="2">
         <v>52</v>
@@ -8753,19 +8732,19 @@
         <v>41</v>
       </c>
       <c r="I63" t="s" s="2">
-        <v>41</v>
+        <v>53</v>
       </c>
       <c r="J63" t="s" s="2">
-        <v>65</v>
+        <v>115</v>
       </c>
       <c r="K63" t="s" s="2">
-        <v>398</v>
+        <v>409</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>399</v>
+        <v>410</v>
       </c>
       <c r="M63" t="s" s="2">
-        <v>400</v>
+        <v>411</v>
       </c>
       <c r="N63" s="2"/>
       <c r="O63" t="s" s="2">
@@ -8815,10 +8794,10 @@
         <v>41</v>
       </c>
       <c r="AE63" t="s" s="2">
-        <v>401</v>
+        <v>412</v>
       </c>
       <c r="AF63" t="s" s="2">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="AG63" t="s" s="2">
         <v>52</v>
@@ -8833,13 +8812,13 @@
         <v>41</v>
       </c>
       <c r="AK63" t="s" s="2">
-        <v>95</v>
+        <v>413</v>
       </c>
       <c r="AL63" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AM63" t="s" s="2">
-        <v>41</v>
+        <v>414</v>
       </c>
       <c r="AN63" t="s" s="2">
         <v>41</v>
@@ -8847,7 +8826,7 @@
     </row>
     <row r="64" hidden="true">
       <c r="A64" t="s" s="2">
-        <v>402</v>
+        <v>415</v>
       </c>
       <c r="B64" s="2"/>
       <c r="C64" t="s" s="2">
@@ -8855,7 +8834,7 @@
       </c>
       <c r="D64" s="2"/>
       <c r="E64" t="s" s="2">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="F64" t="s" s="2">
         <v>52</v>
@@ -8867,19 +8846,21 @@
         <v>41</v>
       </c>
       <c r="I64" t="s" s="2">
-        <v>41</v>
+        <v>53</v>
       </c>
       <c r="J64" t="s" s="2">
-        <v>403</v>
+        <v>71</v>
       </c>
       <c r="K64" t="s" s="2">
-        <v>404</v>
+        <v>416</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>405</v>
+        <v>417</v>
       </c>
       <c r="M64" s="2"/>
-      <c r="N64" s="2"/>
+      <c r="N64" t="s" s="2">
+        <v>418</v>
+      </c>
       <c r="O64" t="s" s="2">
         <v>41</v>
       </c>
@@ -8927,7 +8908,7 @@
         <v>41</v>
       </c>
       <c r="AE64" t="s" s="2">
-        <v>406</v>
+        <v>419</v>
       </c>
       <c r="AF64" t="s" s="2">
         <v>42</v>
@@ -8945,13 +8926,13 @@
         <v>41</v>
       </c>
       <c r="AK64" t="s" s="2">
-        <v>95</v>
+        <v>420</v>
       </c>
       <c r="AL64" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AM64" t="s" s="2">
-        <v>41</v>
+        <v>421</v>
       </c>
       <c r="AN64" t="s" s="2">
         <v>41</v>
@@ -8959,7 +8940,7 @@
     </row>
     <row r="65" hidden="true">
       <c r="A65" t="s" s="2">
-        <v>407</v>
+        <v>422</v>
       </c>
       <c r="B65" s="2"/>
       <c r="C65" t="s" s="2">
@@ -8982,26 +8963,24 @@
         <v>53</v>
       </c>
       <c r="J65" t="s" s="2">
-        <v>65</v>
+        <v>115</v>
       </c>
       <c r="K65" t="s" s="2">
-        <v>408</v>
+        <v>423</v>
       </c>
       <c r="L65" t="s" s="2">
-        <v>409</v>
-      </c>
-      <c r="M65" t="s" s="2">
-        <v>410</v>
-      </c>
+        <v>424</v>
+      </c>
+      <c r="M65" s="2"/>
       <c r="N65" t="s" s="2">
-        <v>411</v>
+        <v>425</v>
       </c>
       <c r="O65" t="s" s="2">
         <v>41</v>
       </c>
       <c r="P65" s="2"/>
       <c r="Q65" t="s" s="2">
-        <v>412</v>
+        <v>41</v>
       </c>
       <c r="R65" t="s" s="2">
         <v>41</v>
@@ -9043,7 +9022,7 @@
         <v>41</v>
       </c>
       <c r="AE65" t="s" s="2">
-        <v>413</v>
+        <v>426</v>
       </c>
       <c r="AF65" t="s" s="2">
         <v>42</v>
@@ -9061,13 +9040,13 @@
         <v>41</v>
       </c>
       <c r="AK65" t="s" s="2">
-        <v>414</v>
+        <v>427</v>
       </c>
       <c r="AL65" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AM65" t="s" s="2">
-        <v>415</v>
+        <v>428</v>
       </c>
       <c r="AN65" t="s" s="2">
         <v>41</v>
@@ -9075,7 +9054,7 @@
     </row>
     <row r="66" hidden="true">
       <c r="A66" t="s" s="2">
-        <v>416</v>
+        <v>429</v>
       </c>
       <c r="B66" s="2"/>
       <c r="C66" t="s" s="2">
@@ -9098,18 +9077,20 @@
         <v>53</v>
       </c>
       <c r="J66" t="s" s="2">
-        <v>115</v>
+        <v>275</v>
       </c>
       <c r="K66" t="s" s="2">
-        <v>417</v>
+        <v>430</v>
       </c>
       <c r="L66" t="s" s="2">
-        <v>418</v>
+        <v>431</v>
       </c>
       <c r="M66" t="s" s="2">
-        <v>419</v>
-      </c>
-      <c r="N66" s="2"/>
+        <v>432</v>
+      </c>
+      <c r="N66" t="s" s="2">
+        <v>433</v>
+      </c>
       <c r="O66" t="s" s="2">
         <v>41</v>
       </c>
@@ -9157,7 +9138,7 @@
         <v>41</v>
       </c>
       <c r="AE66" t="s" s="2">
-        <v>420</v>
+        <v>434</v>
       </c>
       <c r="AF66" t="s" s="2">
         <v>42</v>
@@ -9175,13 +9156,13 @@
         <v>41</v>
       </c>
       <c r="AK66" t="s" s="2">
-        <v>421</v>
+        <v>435</v>
       </c>
       <c r="AL66" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AM66" t="s" s="2">
-        <v>422</v>
+        <v>436</v>
       </c>
       <c r="AN66" t="s" s="2">
         <v>41</v>
@@ -9189,7 +9170,7 @@
     </row>
     <row r="67" hidden="true">
       <c r="A67" t="s" s="2">
-        <v>423</v>
+        <v>437</v>
       </c>
       <c r="B67" s="2"/>
       <c r="C67" t="s" s="2">
@@ -9197,7 +9178,7 @@
       </c>
       <c r="D67" s="2"/>
       <c r="E67" t="s" s="2">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="F67" t="s" s="2">
         <v>52</v>
@@ -9212,17 +9193,19 @@
         <v>53</v>
       </c>
       <c r="J67" t="s" s="2">
-        <v>71</v>
+        <v>115</v>
       </c>
       <c r="K67" t="s" s="2">
-        <v>424</v>
+        <v>438</v>
       </c>
       <c r="L67" t="s" s="2">
-        <v>425</v>
-      </c>
-      <c r="M67" s="2"/>
+        <v>439</v>
+      </c>
+      <c r="M67" t="s" s="2">
+        <v>440</v>
+      </c>
       <c r="N67" t="s" s="2">
-        <v>426</v>
+        <v>441</v>
       </c>
       <c r="O67" t="s" s="2">
         <v>41</v>
@@ -9271,7 +9254,7 @@
         <v>41</v>
       </c>
       <c r="AE67" t="s" s="2">
-        <v>427</v>
+        <v>442</v>
       </c>
       <c r="AF67" t="s" s="2">
         <v>42</v>
@@ -9289,13 +9272,13 @@
         <v>41</v>
       </c>
       <c r="AK67" t="s" s="2">
-        <v>428</v>
+        <v>443</v>
       </c>
       <c r="AL67" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AM67" t="s" s="2">
-        <v>429</v>
+        <v>444</v>
       </c>
       <c r="AN67" t="s" s="2">
         <v>41</v>
@@ -9303,7 +9286,7 @@
     </row>
     <row r="68" hidden="true">
       <c r="A68" t="s" s="2">
-        <v>430</v>
+        <v>445</v>
       </c>
       <c r="B68" s="2"/>
       <c r="C68" t="s" s="2">
@@ -9311,7 +9294,7 @@
       </c>
       <c r="D68" s="2"/>
       <c r="E68" t="s" s="2">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="F68" t="s" s="2">
         <v>52</v>
@@ -9323,21 +9306,21 @@
         <v>41</v>
       </c>
       <c r="I68" t="s" s="2">
-        <v>53</v>
+        <v>41</v>
       </c>
       <c r="J68" t="s" s="2">
-        <v>115</v>
+        <v>137</v>
       </c>
       <c r="K68" t="s" s="2">
-        <v>431</v>
+        <v>446</v>
       </c>
       <c r="L68" t="s" s="2">
-        <v>432</v>
-      </c>
-      <c r="M68" s="2"/>
-      <c r="N68" t="s" s="2">
-        <v>433</v>
-      </c>
+        <v>447</v>
+      </c>
+      <c r="M68" t="s" s="2">
+        <v>448</v>
+      </c>
+      <c r="N68" s="2"/>
       <c r="O68" t="s" s="2">
         <v>41</v>
       </c>
@@ -9361,13 +9344,13 @@
         <v>41</v>
       </c>
       <c r="W68" t="s" s="2">
-        <v>41</v>
+        <v>286</v>
       </c>
       <c r="X68" t="s" s="2">
-        <v>41</v>
+        <v>449</v>
       </c>
       <c r="Y68" t="s" s="2">
-        <v>41</v>
+        <v>450</v>
       </c>
       <c r="Z68" t="s" s="2">
         <v>41</v>
@@ -9385,7 +9368,7 @@
         <v>41</v>
       </c>
       <c r="AE68" t="s" s="2">
-        <v>434</v>
+        <v>445</v>
       </c>
       <c r="AF68" t="s" s="2">
         <v>42</v>
@@ -9403,13 +9386,13 @@
         <v>41</v>
       </c>
       <c r="AK68" t="s" s="2">
-        <v>435</v>
+        <v>451</v>
       </c>
       <c r="AL68" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AM68" t="s" s="2">
-        <v>436</v>
+        <v>452</v>
       </c>
       <c r="AN68" t="s" s="2">
         <v>41</v>
@@ -9417,7 +9400,7 @@
     </row>
     <row r="69" hidden="true">
       <c r="A69" t="s" s="2">
-        <v>437</v>
+        <v>453</v>
       </c>
       <c r="B69" s="2"/>
       <c r="C69" t="s" s="2">
@@ -9437,23 +9420,21 @@
         <v>41</v>
       </c>
       <c r="I69" t="s" s="2">
-        <v>53</v>
+        <v>41</v>
       </c>
       <c r="J69" t="s" s="2">
-        <v>273</v>
+        <v>454</v>
       </c>
       <c r="K69" t="s" s="2">
-        <v>438</v>
+        <v>455</v>
       </c>
       <c r="L69" t="s" s="2">
-        <v>439</v>
+        <v>456</v>
       </c>
       <c r="M69" t="s" s="2">
-        <v>440</v>
-      </c>
-      <c r="N69" t="s" s="2">
-        <v>441</v>
-      </c>
+        <v>457</v>
+      </c>
+      <c r="N69" s="2"/>
       <c r="O69" t="s" s="2">
         <v>41</v>
       </c>
@@ -9501,7 +9482,7 @@
         <v>41</v>
       </c>
       <c r="AE69" t="s" s="2">
-        <v>442</v>
+        <v>453</v>
       </c>
       <c r="AF69" t="s" s="2">
         <v>42</v>
@@ -9519,13 +9500,13 @@
         <v>41</v>
       </c>
       <c r="AK69" t="s" s="2">
-        <v>443</v>
+        <v>458</v>
       </c>
       <c r="AL69" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AM69" t="s" s="2">
-        <v>444</v>
+        <v>459</v>
       </c>
       <c r="AN69" t="s" s="2">
         <v>41</v>
@@ -9533,7 +9514,7 @@
     </row>
     <row r="70" hidden="true">
       <c r="A70" t="s" s="2">
-        <v>445</v>
+        <v>460</v>
       </c>
       <c r="B70" s="2"/>
       <c r="C70" t="s" s="2">
@@ -9553,23 +9534,21 @@
         <v>41</v>
       </c>
       <c r="I70" t="s" s="2">
-        <v>53</v>
+        <v>41</v>
       </c>
       <c r="J70" t="s" s="2">
-        <v>115</v>
+        <v>461</v>
       </c>
       <c r="K70" t="s" s="2">
-        <v>446</v>
+        <v>462</v>
       </c>
       <c r="L70" t="s" s="2">
-        <v>447</v>
+        <v>463</v>
       </c>
       <c r="M70" t="s" s="2">
-        <v>448</v>
-      </c>
-      <c r="N70" t="s" s="2">
-        <v>449</v>
-      </c>
+        <v>464</v>
+      </c>
+      <c r="N70" s="2"/>
       <c r="O70" t="s" s="2">
         <v>41</v>
       </c>
@@ -9617,7 +9596,7 @@
         <v>41</v>
       </c>
       <c r="AE70" t="s" s="2">
-        <v>450</v>
+        <v>460</v>
       </c>
       <c r="AF70" t="s" s="2">
         <v>42</v>
@@ -9635,13 +9614,13 @@
         <v>41</v>
       </c>
       <c r="AK70" t="s" s="2">
-        <v>451</v>
+        <v>465</v>
       </c>
       <c r="AL70" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AM70" t="s" s="2">
-        <v>452</v>
+        <v>466</v>
       </c>
       <c r="AN70" t="s" s="2">
         <v>41</v>
@@ -9649,7 +9628,7 @@
     </row>
     <row r="71" hidden="true">
       <c r="A71" t="s" s="2">
-        <v>453</v>
+        <v>467</v>
       </c>
       <c r="B71" s="2"/>
       <c r="C71" t="s" s="2">
@@ -9660,7 +9639,7 @@
         <v>42</v>
       </c>
       <c r="F71" t="s" s="2">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="G71" t="s" s="2">
         <v>41</v>
@@ -9672,16 +9651,16 @@
         <v>41</v>
       </c>
       <c r="J71" t="s" s="2">
-        <v>137</v>
+        <v>468</v>
       </c>
       <c r="K71" t="s" s="2">
-        <v>454</v>
+        <v>469</v>
       </c>
       <c r="L71" t="s" s="2">
-        <v>455</v>
+        <v>470</v>
       </c>
       <c r="M71" t="s" s="2">
-        <v>456</v>
+        <v>471</v>
       </c>
       <c r="N71" s="2"/>
       <c r="O71" t="s" s="2">
@@ -9707,13 +9686,13 @@
         <v>41</v>
       </c>
       <c r="W71" t="s" s="2">
-        <v>284</v>
+        <v>41</v>
       </c>
       <c r="X71" t="s" s="2">
-        <v>457</v>
+        <v>41</v>
       </c>
       <c r="Y71" t="s" s="2">
-        <v>458</v>
+        <v>41</v>
       </c>
       <c r="Z71" t="s" s="2">
         <v>41</v>
@@ -9731,13 +9710,13 @@
         <v>41</v>
       </c>
       <c r="AE71" t="s" s="2">
-        <v>453</v>
+        <v>467</v>
       </c>
       <c r="AF71" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG71" t="s" s="2">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="AH71" t="s" s="2">
         <v>41</v>
@@ -9749,362 +9728,20 @@
         <v>41</v>
       </c>
       <c r="AK71" t="s" s="2">
-        <v>459</v>
+        <v>472</v>
       </c>
       <c r="AL71" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AM71" t="s" s="2">
-        <v>460</v>
+        <v>41</v>
       </c>
       <c r="AN71" t="s" s="2">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="72" hidden="true">
-      <c r="A72" t="s" s="2">
-        <v>461</v>
-      </c>
-      <c r="B72" s="2"/>
-      <c r="C72" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="D72" s="2"/>
-      <c r="E72" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="F72" t="s" s="2">
-        <v>52</v>
-      </c>
-      <c r="G72" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="H72" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="I72" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="J72" t="s" s="2">
-        <v>462</v>
-      </c>
-      <c r="K72" t="s" s="2">
-        <v>463</v>
-      </c>
-      <c r="L72" t="s" s="2">
-        <v>464</v>
-      </c>
-      <c r="M72" t="s" s="2">
-        <v>465</v>
-      </c>
-      <c r="N72" s="2"/>
-      <c r="O72" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="P72" s="2"/>
-      <c r="Q72" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="R72" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="S72" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="T72" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="U72" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="V72" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="W72" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="X72" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="Y72" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="Z72" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AA72" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AB72" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AC72" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AD72" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AE72" t="s" s="2">
-        <v>461</v>
-      </c>
-      <c r="AF72" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AG72" t="s" s="2">
-        <v>52</v>
-      </c>
-      <c r="AH72" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AI72" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AJ72" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AK72" t="s" s="2">
-        <v>466</v>
-      </c>
-      <c r="AL72" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AM72" t="s" s="2">
-        <v>467</v>
-      </c>
-      <c r="AN72" t="s" s="2">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="73" hidden="true">
-      <c r="A73" t="s" s="2">
-        <v>468</v>
-      </c>
-      <c r="B73" s="2"/>
-      <c r="C73" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="D73" s="2"/>
-      <c r="E73" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="F73" t="s" s="2">
-        <v>52</v>
-      </c>
-      <c r="G73" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="H73" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="I73" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="J73" t="s" s="2">
-        <v>469</v>
-      </c>
-      <c r="K73" t="s" s="2">
-        <v>470</v>
-      </c>
-      <c r="L73" t="s" s="2">
-        <v>471</v>
-      </c>
-      <c r="M73" t="s" s="2">
-        <v>472</v>
-      </c>
-      <c r="N73" s="2"/>
-      <c r="O73" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="P73" s="2"/>
-      <c r="Q73" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="R73" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="S73" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="T73" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="U73" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="V73" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="W73" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="X73" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="Y73" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="Z73" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AA73" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AB73" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AC73" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AD73" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AE73" t="s" s="2">
-        <v>468</v>
-      </c>
-      <c r="AF73" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AG73" t="s" s="2">
-        <v>52</v>
-      </c>
-      <c r="AH73" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AI73" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AJ73" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AK73" t="s" s="2">
-        <v>473</v>
-      </c>
-      <c r="AL73" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AM73" t="s" s="2">
-        <v>474</v>
-      </c>
-      <c r="AN73" t="s" s="2">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="74" hidden="true">
-      <c r="A74" t="s" s="2">
-        <v>475</v>
-      </c>
-      <c r="B74" s="2"/>
-      <c r="C74" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="D74" s="2"/>
-      <c r="E74" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="F74" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="G74" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="H74" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="I74" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="J74" t="s" s="2">
-        <v>476</v>
-      </c>
-      <c r="K74" t="s" s="2">
-        <v>477</v>
-      </c>
-      <c r="L74" t="s" s="2">
-        <v>478</v>
-      </c>
-      <c r="M74" t="s" s="2">
-        <v>479</v>
-      </c>
-      <c r="N74" s="2"/>
-      <c r="O74" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="P74" s="2"/>
-      <c r="Q74" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="R74" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="S74" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="T74" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="U74" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="V74" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="W74" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="X74" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="Y74" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="Z74" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AA74" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AB74" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AC74" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AD74" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AE74" t="s" s="2">
-        <v>475</v>
-      </c>
-      <c r="AF74" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AG74" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AH74" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AI74" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AJ74" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AK74" t="s" s="2">
-        <v>480</v>
-      </c>
-      <c r="AL74" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AM74" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AN74" t="s" s="2">
         <v>41</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AN74">
+  <autoFilter ref="A1:AN71">
     <filterColumn colId="6">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
@@ -10114,7 +9751,7 @@
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>
-  <conditionalFormatting sqref="A2:AI73">
+  <conditionalFormatting sqref="A2:AI70">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>$G2&lt;&gt;"Y"</formula>
     </cfRule>
